--- a/ tsp01-contratos-clientes/BSC/Ficha_de_Indicador_MEG_INEI.xlsx
+++ b/ tsp01-contratos-clientes/BSC/Ficha_de_Indicador_MEG_INEI.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="120" yWindow="30" windowWidth="11595" windowHeight="5055" tabRatio="747"/>
   </bookViews>
   <sheets>
-    <sheet name="C1" sheetId="18390" r:id="rId1"/>
-    <sheet name="R2" sheetId="18384" r:id="rId2"/>
+    <sheet name="C2" sheetId="18390" r:id="rId1"/>
+    <sheet name="I4" sheetId="18384" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'C1'!$A$1:$S$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'R2'!$A$1:$R$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'C2'!$A$1:$S$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'I4'!$A$1:$R$50</definedName>
     <definedName name="F1._Generar_mayor_rentabilidad__Objetivo">'[1]CMI-CE'!$E$8</definedName>
     <definedName name="F2._Generar_mayor_monto_y_diversificación_de_ingresos__Objetivo">'[1]CMI-CE'!$E$15</definedName>
     <definedName name="F3._Reducir_Gasto__Objetivo">'[1]CMI-CE'!#REF!</definedName>
@@ -115,19 +115,10 @@
     <t>Mariela Pajuelo</t>
   </si>
   <si>
-    <t>Número de usuarios que opinan que el servicio es bueno, muy bueno y excelente / Número total del usuarios encuestados</t>
-  </si>
-  <si>
     <t>Ulitma semana de cada 2 meses</t>
   </si>
   <si>
     <t>Bimensual</t>
-  </si>
-  <si>
-    <t>Encuestas bimensuales realizadas por la Oficina Técnica de Difusión</t>
-  </si>
-  <si>
-    <t>Muestra el control sobre los canales de información verificados por la Oficina Técnica de Difusión</t>
   </si>
   <si>
     <t>Roswelt Espinoza</t>
@@ -139,13 +130,22 @@
     <t>Número de equipos tecnológicos no operativos / Número total de equipos tecnológicos</t>
   </si>
   <si>
-    <t>R2. Equipos tecnológicos no operativos</t>
+    <t>Inventario de equipos tecnológicos realizado por la Oficina Ejecutiva de Soporte Técnico</t>
   </si>
   <si>
-    <t>C1. Satisfacción del usuario sobre los canales de información</t>
+    <t>I4. Equipos tecnológicos no operativos</t>
   </si>
   <si>
-    <t>Inventario de equipos tecnológicos realizado por la Oficina Ejecutiva de Soporte Técnico</t>
+    <t>Número de sectores atendidos / Número total de sectores del país</t>
+  </si>
+  <si>
+    <t>Muestra la participación de los diversos sectores del país verificados por la Oficina Técnica de Difusión</t>
+  </si>
+  <si>
+    <t>Reporte de los diversos sectores del país realizado por la Oficina Técnica de Difusión</t>
+  </si>
+  <si>
+    <t>C2. Participación de sectores del país</t>
   </si>
 </sst>
 </file>
@@ -1499,10 +1499,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10946753469074642"/>
+          <c:x val="0.10946753469074638"/>
           <c:y val="6.6371681415929223E-2"/>
           <c:w val="0.63313655199512853"/>
-          <c:h val="0.75000000000000089"/>
+          <c:h val="0.75000000000000111"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1512,7 +1512,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C1'!$M$12</c:f>
+              <c:f>'C2'!$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1539,7 +1539,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'C1'!$M$13:$M$36</c:f>
+              <c:f>'C2'!$M$13:$M$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1579,7 +1579,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C1'!$N$12</c:f>
+              <c:f>'C2'!$N$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1606,43 +1606,43 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'C1'!$N$13:$N$36</c:f>
+              <c:f>'C2'!$N$13:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69084288"/>
-        <c:axId val="69841664"/>
+        <c:axId val="74271744"/>
+        <c:axId val="74282112"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1651,7 +1651,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C1'!$K$12</c:f>
+              <c:f>'C2'!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1685,7 +1685,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'C1'!$J$13:$J$36</c:f>
+              <c:f>'C2'!$J$13:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1721,36 +1721,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'C1'!$K$13:$K$36</c:f>
+              <c:f>'C2'!$K$13:$K$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1761,7 +1761,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C1'!$L$12</c:f>
+              <c:f>'C2'!$L$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1795,7 +1795,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'C1'!$J$13:$J$36</c:f>
+              <c:f>'C2'!$J$13:$J$36</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1831,7 +1831,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'C1'!$L$13:$L$36</c:f>
+              <c:f>'C2'!$L$13:$L$36</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1871,7 +1871,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C1'!$Q$11</c:f>
+              <c:f>'C2'!$Q$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1905,7 +1905,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'C1'!$Q$13:$Q$36</c:f>
+              <c:f>'C2'!$Q$13:$Q$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1918,7 +1918,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C1'!$S$11</c:f>
+              <c:f>'C2'!$S$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1952,7 +1952,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'C1'!$S$13:$S$36</c:f>
+              <c:f>'C2'!$S$13:$S$36</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1961,11 +1961,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69084288"/>
-        <c:axId val="69841664"/>
+        <c:axId val="74271744"/>
+        <c:axId val="74282112"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69084288"/>
+        <c:axId val="74271744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1997,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69841664"/>
+        <c:crossAx val="74282112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2008,7 +2008,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69841664"/>
+        <c:axId val="74282112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2050,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69084288"/>
+        <c:crossAx val="74271744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2088,7 +2088,7 @@
           <c:x val="0.76183494075074931"/>
           <c:y val="0.32743362831858408"/>
           <c:w val="0.22485222631194768"/>
-          <c:h val="0.23893805309734545"/>
+          <c:h val="0.23893805309734556"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2153,7 +2153,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000089" r="0.75000000000000089" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000111" r="0.75000000000000111" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2169,10 +2169,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3158793268390272E-2"/>
+          <c:x val="9.31587932683903E-2"/>
           <c:y val="4.434913205965562E-2"/>
-          <c:w val="0.63318867299609016"/>
-          <c:h val="0.8340498061541699"/>
+          <c:w val="0.63318867299609061"/>
+          <c:h val="0.83404980615417046"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -2182,7 +2182,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$N$12</c:f>
+              <c:f>'I4'!$N$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2209,7 +2209,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'R2'!$J$13:$J$47</c:f>
+              <c:f>'I4'!$J$13:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2269,7 +2269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R2'!$N$13:$N$47</c:f>
+              <c:f>'I4'!$N$13:$N$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2333,7 +2333,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$M$12</c:f>
+              <c:f>'I4'!$M$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2360,7 +2360,7 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>'R2'!$J$13:$J$47</c:f>
+              <c:f>'I4'!$J$13:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2420,7 +2420,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R2'!$M$13:$M$47</c:f>
+              <c:f>'I4'!$M$13:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2479,8 +2479,8 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75264000"/>
-        <c:axId val="75288576"/>
+        <c:axId val="79699328"/>
+        <c:axId val="79705600"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2489,7 +2489,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$K$12</c:f>
+              <c:f>'I4'!$K$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2523,7 +2523,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'R2'!$J$13:$J$47</c:f>
+              <c:f>'I4'!$J$13:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2583,7 +2583,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R2'!$K$13:$K$47</c:f>
+              <c:f>'I4'!$K$13:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2647,7 +2647,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$L$12</c:f>
+              <c:f>'I4'!$L$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2681,7 +2681,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'R2'!$J$13:$J$47</c:f>
+              <c:f>'I4'!$J$13:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2741,7 +2741,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R2'!$L$13:$L$47</c:f>
+              <c:f>'I4'!$L$13:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2805,7 +2805,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$P$11</c:f>
+              <c:f>'I4'!$P$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2839,7 +2839,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'R2'!$J$13:$J$47</c:f>
+              <c:f>'I4'!$J$13:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="35"/>
@@ -2899,7 +2899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R2'!$P$24:$P$47</c:f>
+              <c:f>'I4'!$P$24:$P$47</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -2912,7 +2912,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'R2'!$R$11</c:f>
+              <c:f>'I4'!$R$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2946,7 +2946,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'R2'!$J$13:$J$47</c:f>
+              <c:f>'I4'!$J$13:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>mmm\-yy</c:formatCode>
                 <c:ptCount val="35"/>
@@ -3006,7 +3006,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'R2'!$R$24:$R$47</c:f>
+              <c:f>'I4'!$R$24:$R$47</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="24"/>
@@ -3015,11 +3015,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75264000"/>
-        <c:axId val="75288576"/>
+        <c:axId val="79699328"/>
+        <c:axId val="79705600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75264000"/>
+        <c:axId val="79699328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3051,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75288576"/>
+        <c:crossAx val="79705600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3062,7 +3062,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="75288576"/>
+        <c:axId val="79705600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3104,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75264000"/>
+        <c:crossAx val="79699328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3140,7 +3140,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.77001562577603566"/>
-          <c:y val="0.41201776816524593"/>
+          <c:y val="0.41201776816524616"/>
           <c:w val="0.22125212514374568"/>
           <c:h val="0.25321918451180725"/>
         </c:manualLayout>
@@ -3207,7 +3207,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000056" r="0.75000000000000056" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000089" r="0.75000000000000089" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3912,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:ID154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4430,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="180"/>
       <c r="F3" s="180"/>
@@ -4719,7 +4719,7 @@
       <c r="C5" s="99"/>
       <c r="D5" s="99"/>
       <c r="E5" s="172" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F5" s="173"/>
       <c r="G5" s="173"/>
@@ -5221,7 +5221,7 @@
       <c r="C7" s="99"/>
       <c r="D7" s="108"/>
       <c r="E7" s="172" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F7" s="173"/>
       <c r="G7" s="173"/>
@@ -5462,7 +5462,7 @@
       <c r="C8" s="99"/>
       <c r="D8" s="108"/>
       <c r="E8" s="172" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" s="173"/>
       <c r="G8" s="173"/>
@@ -5703,14 +5703,14 @@
       <c r="C9" s="99"/>
       <c r="D9" s="108"/>
       <c r="E9" s="150" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="175" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="176"/>
       <c r="H9" s="172" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="173"/>
       <c r="J9" s="174"/>
@@ -6691,7 +6691,7 @@
         <v>40574</v>
       </c>
       <c r="K13" s="145">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="L13" s="145">
         <v>0.85</v>
@@ -6700,7 +6700,7 @@
         <v>0.85</v>
       </c>
       <c r="N13" s="151">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O13" s="128"/>
       <c r="P13" s="128"/>
@@ -6941,7 +6941,7 @@
         <v>40633</v>
       </c>
       <c r="K14" s="146">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="L14" s="146">
         <v>0.85</v>
@@ -6950,7 +6950,7 @@
         <v>0.85</v>
       </c>
       <c r="N14" s="152">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O14" s="128"/>
       <c r="P14" s="128"/>
@@ -7187,7 +7187,7 @@
         <v>40694</v>
       </c>
       <c r="K15" s="147">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="L15" s="147">
         <v>0.85</v>
@@ -7196,7 +7196,7 @@
         <v>0.85</v>
       </c>
       <c r="N15" s="153">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O15" s="128"/>
       <c r="P15" s="128"/>
@@ -7432,7 +7432,7 @@
         <v>40753</v>
       </c>
       <c r="K16" s="146">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="L16" s="146">
         <v>0.85</v>
@@ -7441,7 +7441,7 @@
         <v>0.85</v>
       </c>
       <c r="N16" s="152">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O16" s="128"/>
       <c r="P16" s="128"/>
@@ -7677,7 +7677,7 @@
         <v>40816</v>
       </c>
       <c r="K17" s="147">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="L17" s="147">
         <v>0.85</v>
@@ -7686,7 +7686,7 @@
         <v>0.85</v>
       </c>
       <c r="N17" s="153">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O17" s="128"/>
       <c r="P17" s="128"/>
@@ -7922,7 +7922,7 @@
         <v>40877</v>
       </c>
       <c r="K18" s="146">
-        <v>0.79</v>
+        <v>0.83</v>
       </c>
       <c r="L18" s="146">
         <v>0.85</v>
@@ -7931,7 +7931,7 @@
         <v>0.85</v>
       </c>
       <c r="N18" s="152">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O18" s="128"/>
       <c r="P18" s="128"/>
@@ -8167,7 +8167,7 @@
         <v>40939</v>
       </c>
       <c r="K19" s="147">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="L19" s="147">
         <v>0.85</v>
@@ -8176,7 +8176,7 @@
         <v>0.85</v>
       </c>
       <c r="N19" s="153">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O19" s="128"/>
       <c r="P19" s="128"/>
@@ -8412,7 +8412,7 @@
         <v>40998</v>
       </c>
       <c r="K20" s="146">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="L20" s="146">
         <v>0.85</v>
@@ -8421,7 +8421,7 @@
         <v>0.85</v>
       </c>
       <c r="N20" s="152">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O20" s="128"/>
       <c r="P20" s="128"/>
@@ -8657,7 +8657,7 @@
         <v>41060</v>
       </c>
       <c r="K21" s="147">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L21" s="147">
         <v>0.85</v>
@@ -8666,7 +8666,7 @@
         <v>0.85</v>
       </c>
       <c r="N21" s="153">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="O21" s="128"/>
       <c r="P21" s="128"/>
@@ -13812,7 +13812,7 @@
   <dimension ref="A1:IC165"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -14330,7 +14330,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="195"/>
       <c r="F3" s="195"/>
@@ -14617,7 +14617,7 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="187" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F5" s="188"/>
       <c r="G5" s="188"/>
@@ -14865,7 +14865,7 @@
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="187" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="188"/>
       <c r="G6" s="189"/>
@@ -15117,7 +15117,7 @@
       <c r="C7" s="194"/>
       <c r="D7" s="191"/>
       <c r="E7" s="187" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F7" s="188"/>
       <c r="G7" s="188"/>
@@ -15363,7 +15363,7 @@
       <c r="C8" s="194"/>
       <c r="D8" s="191"/>
       <c r="E8" s="187" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="188"/>
       <c r="G8" s="188"/>
